--- a/xlsx/工商管理硕士_intext.xlsx
+++ b/xlsx/工商管理硕士_intext.xlsx
@@ -15,12 +15,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="396">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="392">
   <si>
     <t>工商管理硕士</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B7%A5%E5%95%86%E7%AE%A1%E7%90%86%E7%A1%95%E5%A3%AB</t>
+    <t>https://zh.wikipedia.org/wiki/%E5%B7%A5%E5%95%86%E7%AE%A1%E7%90%86%E7%A2%A9%E5%A3%AB</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/MBA_(%E6%B6%88%E6%AD%A7%E4%B9%89)</t>
@@ -35,13 +35,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B8%AE%E5%AF%AB</t>
   </si>
   <si>
-    <t>縮寫</t>
+    <t>缩写</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>大學</t>
+    <t>大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%95%86%E5%AD%A6%E9%99%A2</t>
@@ -53,7 +53,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%AE%A1%E7%90%86%E5%AD%B8%E9%99%A2</t>
   </si>
   <si>
-    <t>管理學院</t>
+    <t>管理学院</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8A%9D%E5%8A%A0%E5%93%A5%E5%A4%A7%E5%AD%A6</t>
@@ -77,13 +77,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9F%8F%E5%85%8B%E8%90%8A%E5%8A%A0%E5%B7%9E%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>柏克萊加州大學</t>
+    <t>柏克莱加州大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B4%9B%E6%9D%89%E7%A3%AF%E5%8A%A0%E5%B7%9E%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>洛杉磯加州大學</t>
+    <t>洛杉矶加州大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E5%BE%B7%E6%A3%AE%E7%AE%A1%E7%90%86%E5%AD%A6%E9%99%A2</t>
@@ -95,25 +95,22 @@
     <t>https://zh.wikipedia.org/wiki/%E9%BA%BB%E7%9C%81%E7%90%86%E5%B7%A5%E5%AD%B8%E9%99%A2</t>
   </si>
   <si>
-    <t>麻省理工學院</t>
+    <t>麻省理工学院</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%B2%E9%9A%86%E7%AE%A1%E7%90%86%E5%AD%B8%E9%99%A2</t>
   </si>
   <si>
-    <t>史隆管理學院</t>
+    <t>史隆管理学院</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8A%9D%E5%8A%A0%E5%93%A5%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>芝加哥大學</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%93%A5%E5%80%AB%E6%AF%94%E4%BA%9E%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>哥倫比亞大學</t>
+    <t>哥伦比亚大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BA%B7%E5%A5%88%E5%B0%94%E5%A4%A7%E5%AD%A6</t>
@@ -131,7 +128,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%81%94%E7%89%B9%E8%8C%85%E6%96%AF%E5%AD%B8%E9%99%A2</t>
   </si>
   <si>
-    <t>達特茅斯學院</t>
+    <t>达特茅斯学院</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A1%94%E5%85%8B%E5%95%86%E5%AD%A6%E9%99%A2</t>
@@ -143,13 +140,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9D%9C%E5%85%8B%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>杜克大學</t>
+    <t>杜克大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A6%8F%E8%AA%87%E5%95%86%E5%AD%B8%E9%99%A2</t>
   </si>
   <si>
-    <t>福誇商學院</t>
+    <t>福夸商学院</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%93%88%E4%BD%9B%E5%A4%A7%E5%AD%A6</t>
@@ -161,19 +158,19 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E5%8C%97%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>西北大學</t>
+    <t>西北大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%87%B1%E6%B4%9B%E7%AE%A1%E7%90%86%E5%AD%B8%E9%99%A2</t>
   </si>
   <si>
-    <t>凱洛管理學院</t>
+    <t>凯洛管理学院</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AF%86%E8%A5%BF%E6%A0%B9%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>密西根大學</t>
+    <t>密西根大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BD%97%E6%96%AF%E5%95%86%E5%AD%A6%E9%99%A2</t>
@@ -185,19 +182,19 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B4%90%E7%B4%84%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>紐約大學</t>
+    <t>纽约大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%B2%E7%99%BB%E5%95%86%E5%AD%B8%E9%99%A2</t>
   </si>
   <si>
-    <t>史登商學院</t>
+    <t>史登商学院</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%B2%E4%B8%B9%E4%BD%9B%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>史丹佛大學</t>
+    <t>史丹佛大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%AF%E5%9D%A6%E7%A6%8F%E5%95%86%E5%AD%A6%E9%99%A2</t>
@@ -221,13 +218,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%80%B6%E9%AD%AF%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>耶魯大學</t>
+    <t>耶鲁大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A5%A7%E6%96%AF%E6%B1%80%E5%BE%B7%E5%85%8B%E8%96%A9%E6%96%AF%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>奧斯汀德克薩斯大學</t>
+    <t>奥斯汀德克萨斯大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%BA%A6%E5%BA%93%E5%A7%86%E6%96%AF%E5%95%86%E5%AD%A6%E9%99%A2</t>
@@ -239,13 +236,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9D%9C%E8%98%AD%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>杜蘭大學</t>
+    <t>杜兰大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E5%90%89%E5%B0%BC%E4%BA%9E%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>維吉尼亞大學</t>
+    <t>维吉尼亚大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AC%A7%E6%B4%B2</t>
@@ -275,13 +272,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8A%8D%E6%A9%8B%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>劍橋大學</t>
+    <t>剑桥大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B3%88%E5%90%89%E5%95%86%E5%AD%B8%E9%99%A2</t>
   </si>
   <si>
-    <t>賈吉商學院</t>
+    <t>贾吉商学院</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%A6%E6%95%A6%E5%95%86%E5%AD%A6%E9%99%A2</t>
@@ -293,25 +290,25 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9B%BC%E5%BE%B9%E6%96%AF%E7%89%B9%E5%95%86%E5%AD%B8%E9%99%A2</t>
   </si>
   <si>
-    <t>曼徹斯特商學院</t>
+    <t>曼彻斯特商学院</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%89%9B%E6%B4%A5%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>牛津大學</t>
+    <t>牛津大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B3%BD%E5%BE%B7%E5%95%86%E5%AD%B8%E9%99%A2</t>
   </si>
   <si>
-    <t>賽德商學院</t>
+    <t>赛德商学院</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8F%AF%E5%A8%81%E5%95%86%E5%AD%B8%E9%99%A2</t>
   </si>
   <si>
-    <t>華威商學院</t>
+    <t>华威商学院</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%91%9E%E5%A3%AB</t>
@@ -359,19 +356,19 @@
     <t>https://zh.wikipedia.org/wiki/%E6%BE%B3%E6%B4%B2%E5%9C%8B%E7%AB%8B%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>澳洲國立大學</t>
+    <t>澳洲国立大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%BE%B3%E5%A4%A7%E5%88%A9%E4%BA%9E%E5%95%86%E5%AD%B8%E9%99%A2</t>
   </si>
   <si>
-    <t>澳大利亞商學院</t>
+    <t>澳大利亚商学院</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A2%A8%E7%88%BE%E6%9C%AC%E5%95%86%E5%AD%B8%E9%99%A2</t>
   </si>
   <si>
-    <t>墨爾本商學院</t>
+    <t>墨尔本商学院</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%B0%E5%BA%A6</t>
@@ -383,25 +380,25 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E8%8F%AF%E6%B0%91%E5%9C%8B</t>
   </si>
   <si>
-    <t>中華民國</t>
+    <t>中华民国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%87%BA%E7%81%A3</t>
   </si>
   <si>
-    <t>臺灣</t>
+    <t>台湾</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E7%AB%8B%E6%94%BF%E6%B2%BB%E5%A4%A7%E5%AD%B8%E5%95%86%E5%AD%B8%E9%99%A2</t>
   </si>
   <si>
-    <t>國立政治大學商學院</t>
+    <t>国立政治大学商学院</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E7%AB%8B%E8%87%BA%E7%81%A3%E7%A7%91%E6%8A%80%E5%A4%A7%E5%AD%B8%E7%AE%A1%E7%90%86%E5%AD%B8%E9%99%A2</t>
   </si>
   <si>
-    <t>國立臺灣科技大學管理學院</t>
+    <t>国立台湾科技大学管理学院</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%8D%8E%E4%BA%BA%E6%B0%91%E5%85%B1%E5%92%8C%E5%9B%BD</t>
@@ -437,7 +434,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E6%AD%90%E5%9C%8B%E9%9A%9B%E5%B7%A5%E5%95%86%E5%AD%B8%E9%99%A2</t>
   </si>
   <si>
-    <t>中歐國際工商學院</t>
+    <t>中欧国际工商学院</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%99%E6%B8%AF</t>
@@ -449,13 +446,13 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A6%99%E6%B8%AF%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>香港大學</t>
+    <t>香港大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%99%E6%B8%AF%E4%B8%AD%E6%96%87%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>香港中文大學</t>
+    <t>香港中文大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%99%E6%B8%AF%E7%A7%91%E6%8A%80%E5%A4%A7%E5%AD%A6%E5%95%86%E5%AD%A6%E9%99%A2</t>
@@ -485,7 +482,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%87%91%E8%9E%8D%E6%99%82%E5%A0%B1</t>
   </si>
   <si>
-    <t>金融時報</t>
+    <t>金融时报</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Wayback_Machine</t>
@@ -497,25 +494,25 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9C%8B%E6%99%82%E5%A0%B1</t>
   </si>
   <si>
-    <t>中國時報</t>
+    <t>中国时报</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E7%94%B1%E6%99%82%E5%A0%B1</t>
   </si>
   <si>
-    <t>自由時報</t>
+    <t>自由时报</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%A4%AE%E9%80%9A%E8%A8%8A%E7%A4%BE</t>
   </si>
   <si>
-    <t>中央通訊社</t>
+    <t>中央通讯社</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A2%A8%E5%82%B3%E5%AA%92</t>
   </si>
   <si>
-    <t>風傳媒</t>
+    <t>风传媒</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A0%94%E7%A9%B6%E7%94%9F%E7%AE%A1%E7%90%86%E7%A7%91%E5%85%A5%E5%AD%A6%E8%80%83%E8%AF%95</t>
@@ -527,19 +524,19 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AD%90%E6%B4%B2%E8%B3%AA%E9%87%8F%E6%94%B9%E5%96%84%E7%B3%BB%E7%B5%B1</t>
   </si>
   <si>
-    <t>歐洲質量改善系統</t>
+    <t>欧洲质量改善系统</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E5%95%86%E7%AE%A1%E5%AD%B8%E9%99%A2%E4%BF%83%E9%80%B2%E5%8D%94%E6%9C%83</t>
   </si>
   <si>
-    <t>國際商管學院促進協會</t>
+    <t>国际商管学院促进协会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%95%86%E5%AD%B8%E7%A2%A9%E5%A3%AB</t>
   </si>
   <si>
-    <t>商學碩士</t>
+    <t>商学硕士</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AE%A1%E7%90%86%E7%A1%95%E5%A3%AB</t>
@@ -551,13 +548,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E4%BC%81%E6%A5%AD%E7%A2%A9%E5%A3%AB</t>
   </si>
   <si>
-    <t>國際企業碩士</t>
+    <t>国际企业硕士</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%AC%E5%85%B1%E8%A1%8C%E6%94%BF%E7%A2%A9%E5%A3%AB</t>
   </si>
   <si>
-    <t>公共行政碩士</t>
+    <t>公共行政硕士</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AE%A1%E7%90%86%E5%AD%A6</t>
@@ -617,7 +614,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%AC%E5%85%B1%E8%A1%8C%E6%94%BF%E5%AD%B8</t>
   </si>
   <si>
-    <t>公共行政學</t>
+    <t>公共行政学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%88%98%E7%95%A5%E7%AE%A1%E7%90%86</t>
@@ -635,7 +632,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%87%89%E8%AE%8A%E7%AE%A1%E7%90%86</t>
   </si>
   <si>
-    <t>應變管理</t>
+    <t>应变管理</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Communications_management</t>
@@ -659,7 +656,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B8%BE%E6%95%88%E7%AE%A1%E7%90%86</t>
   </si>
   <si>
-    <t>績效管理</t>
+    <t>绩效管理</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A3%8E%E9%99%A9%E7%AE%A1%E7%90%86</t>
@@ -713,7 +710,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%87%9F%E5%BB%BA%E7%AE%A1%E7%90%86</t>
   </si>
   <si>
-    <t>營建管理</t>
+    <t>营建管理</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Line_management</t>
@@ -725,7 +722,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A1%8C%E9%8A%B7%E7%AE%A1%E7%90%86</t>
   </si>
   <si>
-    <t>行銷管理</t>
+    <t>行销管理</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Operations_management</t>
@@ -749,7 +746,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%93%81%E8%B3%AA%E7%AE%A1%E7%90%86</t>
   </si>
   <si>
-    <t>品質管理</t>
+    <t>品质管理</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Sales_management</t>
@@ -827,13 +824,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8D%B1%E6%A9%9F%E7%AE%A1%E7%90%86</t>
   </si>
   <si>
-    <t>危機管理</t>
+    <t>危机管理</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A3%93%E5%8A%9B%E7%AE%A1%E7%90%86</t>
   </si>
   <si>
-    <t>壓力管理</t>
+    <t>压力管理</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Resource_management</t>
@@ -845,7 +842,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%92%B0%E5%A2%83%E8%B3%87%E6%BA%90%E7%AE%A1%E7%90%86</t>
   </si>
   <si>
-    <t>環境資源管理</t>
+    <t>环境资源管理</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E5%8A%9B%E8%B5%84%E6%BA%90%E7%AE%A1%E7%90%86</t>
@@ -863,7 +860,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B3%87%E8%A8%8A%E7%A7%91%E6%8A%80%E7%AE%A1%E7%90%86</t>
   </si>
   <si>
-    <t>資訊科技管理</t>
+    <t>资讯科技管理</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%9F%A5%E8%AF%86%E7%AE%A1%E7%90%86</t>
@@ -911,7 +908,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B0%88%E5%AE%B6%E6%B4%BE%E9%81%A3</t>
   </si>
   <si>
-    <t>專家派遣</t>
+    <t>专家派遣</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B9%B2%E9%83%A8</t>
@@ -923,7 +920,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%AB%98%E9%9A%8E%E7%AE%A1%E7%90%86%E4%BA%BA%E5%93%A1</t>
   </si>
   <si>
-    <t>高階管理人員</t>
+    <t>高阶管理人员</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Adhocracy</t>
@@ -959,25 +956,25 @@
     <t>https://zh.wikipedia.org/wiki/%E7%9B%AE%E6%A8%99%E7%AE%A1%E7%90%86</t>
   </si>
   <si>
-    <t>目標管理</t>
+    <t>目标管理</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AE%A1%E7%90%86%E9%A2%A8%E6%A0%BC</t>
   </si>
   <si>
-    <t>管理風格</t>
+    <t>管理风格</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%8F%E8%A7%80%E7%AE%A1%E7%90%86</t>
   </si>
   <si>
-    <t>宏觀管理</t>
+    <t>宏观管理</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BE%AE%E8%A7%80%E7%AE%A1%E7%90%86</t>
   </si>
   <si>
-    <t>微觀管理</t>
+    <t>微观管理</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E5%AD%A6%E7%AE%A1%E7%90%86</t>
@@ -1007,7 +1004,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B1%BA%E6%96%B7</t>
   </si>
   <si>
-    <t>決斷</t>
+    <t>决断</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%86%B3%E7%AD%96</t>
@@ -1025,7 +1022,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A0%98%E5%B0%8E%E5%8A%9B</t>
   </si>
   <si>
-    <t>領導力</t>
+    <t>领导力</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BD%BC%E5%BE%97%C2%B7%E5%BE%B7%E9%B2%81%E5%85%8B</t>
@@ -1049,7 +1046,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B7%A5%E5%95%86%E7%AE%A1%E7%90%86%E5%AD%B8%E5%AD%B8%E5%A3%AB</t>
   </si>
   <si>
-    <t>工商管理學學士</t>
+    <t>工商管理学学士</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/PhD_in_management</t>
@@ -1109,13 +1106,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%AE%A1%E7%90%86%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>管理主義</t>
+    <t>管理主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B5%84%E7%B9%94%E7%99%BC%E5%B1%95%E7%90%86%E8%AB%96</t>
   </si>
   <si>
-    <t>組織發展理論</t>
+    <t>组织发展理论</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%88%E4%BD%9C</t>
@@ -1187,22 +1184,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
   </si>
   <si>
-    <t>權威控制</t>
+    <t>权威控制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E7%AB%8B%E5%9C%8B%E6%9C%83%E5%9C%96%E6%9B%B8%E9%A4%A8</t>
   </si>
   <si>
-    <t>國立國會圖書館</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B7%A5%E5%95%86%E7%AE%A1%E7%90%86%E7%A2%A9%E5%A3%AB</t>
-  </si>
-  <si>
-    <t>浏览条目正文[c]</t>
-  </si>
-  <si>
-    <t>阅读</t>
+    <t>国立国会图书馆</t>
   </si>
 </sst>
 </file>
@@ -1551,7 +1539,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I200"/>
+  <dimension ref="A1:I198"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1979,7 +1967,7 @@
         <v>29</v>
       </c>
       <c r="F15" t="s">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="G15" t="n">
         <v>1</v>
@@ -2005,10 +1993,10 @@
         <v>15</v>
       </c>
       <c r="E16" t="s">
+        <v>30</v>
+      </c>
+      <c r="F16" t="s">
         <v>31</v>
-      </c>
-      <c r="F16" t="s">
-        <v>32</v>
       </c>
       <c r="G16" t="n">
         <v>1</v>
@@ -2034,10 +2022,10 @@
         <v>16</v>
       </c>
       <c r="E17" t="s">
+        <v>32</v>
+      </c>
+      <c r="F17" t="s">
         <v>33</v>
-      </c>
-      <c r="F17" t="s">
-        <v>34</v>
       </c>
       <c r="G17" t="n">
         <v>1</v>
@@ -2063,10 +2051,10 @@
         <v>17</v>
       </c>
       <c r="E18" t="s">
+        <v>34</v>
+      </c>
+      <c r="F18" t="s">
         <v>35</v>
-      </c>
-      <c r="F18" t="s">
-        <v>36</v>
       </c>
       <c r="G18" t="n">
         <v>1</v>
@@ -2092,10 +2080,10 @@
         <v>18</v>
       </c>
       <c r="E19" t="s">
+        <v>36</v>
+      </c>
+      <c r="F19" t="s">
         <v>37</v>
-      </c>
-      <c r="F19" t="s">
-        <v>38</v>
       </c>
       <c r="G19" t="n">
         <v>1</v>
@@ -2121,10 +2109,10 @@
         <v>19</v>
       </c>
       <c r="E20" t="s">
+        <v>38</v>
+      </c>
+      <c r="F20" t="s">
         <v>39</v>
-      </c>
-      <c r="F20" t="s">
-        <v>40</v>
       </c>
       <c r="G20" t="n">
         <v>1</v>
@@ -2150,10 +2138,10 @@
         <v>20</v>
       </c>
       <c r="E21" t="s">
+        <v>40</v>
+      </c>
+      <c r="F21" t="s">
         <v>41</v>
-      </c>
-      <c r="F21" t="s">
-        <v>42</v>
       </c>
       <c r="G21" t="n">
         <v>1</v>
@@ -2179,10 +2167,10 @@
         <v>21</v>
       </c>
       <c r="E22" t="s">
+        <v>42</v>
+      </c>
+      <c r="F22" t="s">
         <v>43</v>
-      </c>
-      <c r="F22" t="s">
-        <v>44</v>
       </c>
       <c r="G22" t="n">
         <v>1</v>
@@ -2208,10 +2196,10 @@
         <v>22</v>
       </c>
       <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
         <v>45</v>
-      </c>
-      <c r="F23" t="s">
-        <v>46</v>
       </c>
       <c r="G23" t="n">
         <v>1</v>
@@ -2237,10 +2225,10 @@
         <v>23</v>
       </c>
       <c r="E24" t="s">
+        <v>46</v>
+      </c>
+      <c r="F24" t="s">
         <v>47</v>
-      </c>
-      <c r="F24" t="s">
-        <v>48</v>
       </c>
       <c r="G24" t="n">
         <v>1</v>
@@ -2266,10 +2254,10 @@
         <v>24</v>
       </c>
       <c r="E25" t="s">
+        <v>48</v>
+      </c>
+      <c r="F25" t="s">
         <v>49</v>
-      </c>
-      <c r="F25" t="s">
-        <v>50</v>
       </c>
       <c r="G25" t="n">
         <v>1</v>
@@ -2295,10 +2283,10 @@
         <v>25</v>
       </c>
       <c r="E26" t="s">
+        <v>50</v>
+      </c>
+      <c r="F26" t="s">
         <v>51</v>
-      </c>
-      <c r="F26" t="s">
-        <v>52</v>
       </c>
       <c r="G26" t="n">
         <v>1</v>
@@ -2324,10 +2312,10 @@
         <v>26</v>
       </c>
       <c r="E27" t="s">
+        <v>52</v>
+      </c>
+      <c r="F27" t="s">
         <v>53</v>
-      </c>
-      <c r="F27" t="s">
-        <v>54</v>
       </c>
       <c r="G27" t="n">
         <v>1</v>
@@ -2353,10 +2341,10 @@
         <v>27</v>
       </c>
       <c r="E28" t="s">
+        <v>54</v>
+      </c>
+      <c r="F28" t="s">
         <v>55</v>
-      </c>
-      <c r="F28" t="s">
-        <v>56</v>
       </c>
       <c r="G28" t="n">
         <v>1</v>
@@ -2382,10 +2370,10 @@
         <v>28</v>
       </c>
       <c r="E29" t="s">
+        <v>56</v>
+      </c>
+      <c r="F29" t="s">
         <v>57</v>
-      </c>
-      <c r="F29" t="s">
-        <v>58</v>
       </c>
       <c r="G29" t="n">
         <v>1</v>
@@ -2411,10 +2399,10 @@
         <v>29</v>
       </c>
       <c r="E30" t="s">
+        <v>58</v>
+      </c>
+      <c r="F30" t="s">
         <v>59</v>
-      </c>
-      <c r="F30" t="s">
-        <v>60</v>
       </c>
       <c r="G30" t="n">
         <v>1</v>
@@ -2440,10 +2428,10 @@
         <v>30</v>
       </c>
       <c r="E31" t="s">
+        <v>60</v>
+      </c>
+      <c r="F31" t="s">
         <v>61</v>
-      </c>
-      <c r="F31" t="s">
-        <v>62</v>
       </c>
       <c r="G31" t="n">
         <v>27</v>
@@ -2469,10 +2457,10 @@
         <v>31</v>
       </c>
       <c r="E32" t="s">
+        <v>62</v>
+      </c>
+      <c r="F32" t="s">
         <v>63</v>
-      </c>
-      <c r="F32" t="s">
-        <v>64</v>
       </c>
       <c r="G32" t="n">
         <v>1</v>
@@ -2498,10 +2486,10 @@
         <v>32</v>
       </c>
       <c r="E33" t="s">
+        <v>64</v>
+      </c>
+      <c r="F33" t="s">
         <v>65</v>
-      </c>
-      <c r="F33" t="s">
-        <v>66</v>
       </c>
       <c r="G33" t="n">
         <v>1</v>
@@ -2527,10 +2515,10 @@
         <v>33</v>
       </c>
       <c r="E34" t="s">
+        <v>66</v>
+      </c>
+      <c r="F34" t="s">
         <v>67</v>
-      </c>
-      <c r="F34" t="s">
-        <v>68</v>
       </c>
       <c r="G34" t="n">
         <v>1</v>
@@ -2556,10 +2544,10 @@
         <v>34</v>
       </c>
       <c r="E35" t="s">
+        <v>68</v>
+      </c>
+      <c r="F35" t="s">
         <v>69</v>
-      </c>
-      <c r="F35" t="s">
-        <v>70</v>
       </c>
       <c r="G35" t="n">
         <v>1</v>
@@ -2585,10 +2573,10 @@
         <v>35</v>
       </c>
       <c r="E36" t="s">
+        <v>70</v>
+      </c>
+      <c r="F36" t="s">
         <v>71</v>
-      </c>
-      <c r="F36" t="s">
-        <v>72</v>
       </c>
       <c r="G36" t="n">
         <v>1</v>
@@ -2614,10 +2602,10 @@
         <v>36</v>
       </c>
       <c r="E37" t="s">
+        <v>72</v>
+      </c>
+      <c r="F37" t="s">
         <v>73</v>
-      </c>
-      <c r="F37" t="s">
-        <v>74</v>
       </c>
       <c r="G37" t="n">
         <v>1</v>
@@ -2643,10 +2631,10 @@
         <v>37</v>
       </c>
       <c r="E38" t="s">
+        <v>74</v>
+      </c>
+      <c r="F38" t="s">
         <v>75</v>
-      </c>
-      <c r="F38" t="s">
-        <v>76</v>
       </c>
       <c r="G38" t="n">
         <v>1</v>
@@ -2672,10 +2660,10 @@
         <v>38</v>
       </c>
       <c r="E39" t="s">
+        <v>76</v>
+      </c>
+      <c r="F39" t="s">
         <v>77</v>
-      </c>
-      <c r="F39" t="s">
-        <v>78</v>
       </c>
       <c r="G39" t="n">
         <v>3</v>
@@ -2701,10 +2689,10 @@
         <v>39</v>
       </c>
       <c r="E40" t="s">
+        <v>78</v>
+      </c>
+      <c r="F40" t="s">
         <v>79</v>
-      </c>
-      <c r="F40" t="s">
-        <v>80</v>
       </c>
       <c r="G40" t="n">
         <v>1</v>
@@ -2730,10 +2718,10 @@
         <v>40</v>
       </c>
       <c r="E41" t="s">
+        <v>80</v>
+      </c>
+      <c r="F41" t="s">
         <v>81</v>
-      </c>
-      <c r="F41" t="s">
-        <v>82</v>
       </c>
       <c r="G41" t="n">
         <v>1</v>
@@ -2759,10 +2747,10 @@
         <v>41</v>
       </c>
       <c r="E42" t="s">
+        <v>82</v>
+      </c>
+      <c r="F42" t="s">
         <v>83</v>
-      </c>
-      <c r="F42" t="s">
-        <v>84</v>
       </c>
       <c r="G42" t="n">
         <v>5</v>
@@ -2788,10 +2776,10 @@
         <v>42</v>
       </c>
       <c r="E43" t="s">
+        <v>84</v>
+      </c>
+      <c r="F43" t="s">
         <v>85</v>
-      </c>
-      <c r="F43" t="s">
-        <v>86</v>
       </c>
       <c r="G43" t="n">
         <v>1</v>
@@ -2817,10 +2805,10 @@
         <v>43</v>
       </c>
       <c r="E44" t="s">
+        <v>86</v>
+      </c>
+      <c r="F44" t="s">
         <v>87</v>
-      </c>
-      <c r="F44" t="s">
-        <v>88</v>
       </c>
       <c r="G44" t="n">
         <v>1</v>
@@ -2846,10 +2834,10 @@
         <v>44</v>
       </c>
       <c r="E45" t="s">
+        <v>88</v>
+      </c>
+      <c r="F45" t="s">
         <v>89</v>
-      </c>
-      <c r="F45" t="s">
-        <v>90</v>
       </c>
       <c r="G45" t="n">
         <v>1</v>
@@ -2875,10 +2863,10 @@
         <v>45</v>
       </c>
       <c r="E46" t="s">
+        <v>90</v>
+      </c>
+      <c r="F46" t="s">
         <v>91</v>
-      </c>
-      <c r="F46" t="s">
-        <v>92</v>
       </c>
       <c r="G46" t="n">
         <v>1</v>
@@ -2904,10 +2892,10 @@
         <v>46</v>
       </c>
       <c r="E47" t="s">
+        <v>92</v>
+      </c>
+      <c r="F47" t="s">
         <v>93</v>
-      </c>
-      <c r="F47" t="s">
-        <v>94</v>
       </c>
       <c r="G47" t="n">
         <v>1</v>
@@ -2933,10 +2921,10 @@
         <v>47</v>
       </c>
       <c r="E48" t="s">
+        <v>94</v>
+      </c>
+      <c r="F48" t="s">
         <v>95</v>
-      </c>
-      <c r="F48" t="s">
-        <v>96</v>
       </c>
       <c r="G48" t="n">
         <v>1</v>
@@ -2962,10 +2950,10 @@
         <v>48</v>
       </c>
       <c r="E49" t="s">
+        <v>96</v>
+      </c>
+      <c r="F49" t="s">
         <v>97</v>
-      </c>
-      <c r="F49" t="s">
-        <v>98</v>
       </c>
       <c r="G49" t="n">
         <v>1</v>
@@ -2991,10 +2979,10 @@
         <v>49</v>
       </c>
       <c r="E50" t="s">
+        <v>98</v>
+      </c>
+      <c r="F50" t="s">
         <v>99</v>
-      </c>
-      <c r="F50" t="s">
-        <v>100</v>
       </c>
       <c r="G50" t="n">
         <v>1</v>
@@ -3020,10 +3008,10 @@
         <v>50</v>
       </c>
       <c r="E51" t="s">
+        <v>100</v>
+      </c>
+      <c r="F51" t="s">
         <v>101</v>
-      </c>
-      <c r="F51" t="s">
-        <v>102</v>
       </c>
       <c r="G51" t="n">
         <v>1</v>
@@ -3049,10 +3037,10 @@
         <v>51</v>
       </c>
       <c r="E52" t="s">
+        <v>102</v>
+      </c>
+      <c r="F52" t="s">
         <v>103</v>
-      </c>
-      <c r="F52" t="s">
-        <v>104</v>
       </c>
       <c r="G52" t="n">
         <v>3</v>
@@ -3078,10 +3066,10 @@
         <v>52</v>
       </c>
       <c r="E53" t="s">
+        <v>104</v>
+      </c>
+      <c r="F53" t="s">
         <v>105</v>
-      </c>
-      <c r="F53" t="s">
-        <v>106</v>
       </c>
       <c r="G53" t="n">
         <v>1</v>
@@ -3107,10 +3095,10 @@
         <v>53</v>
       </c>
       <c r="E54" t="s">
+        <v>106</v>
+      </c>
+      <c r="F54" t="s">
         <v>107</v>
-      </c>
-      <c r="F54" t="s">
-        <v>108</v>
       </c>
       <c r="G54" t="n">
         <v>1</v>
@@ -3136,10 +3124,10 @@
         <v>54</v>
       </c>
       <c r="E55" t="s">
+        <v>108</v>
+      </c>
+      <c r="F55" t="s">
         <v>109</v>
-      </c>
-      <c r="F55" t="s">
-        <v>110</v>
       </c>
       <c r="G55" t="n">
         <v>2</v>
@@ -3165,10 +3153,10 @@
         <v>55</v>
       </c>
       <c r="E56" t="s">
+        <v>110</v>
+      </c>
+      <c r="F56" t="s">
         <v>111</v>
-      </c>
-      <c r="F56" t="s">
-        <v>112</v>
       </c>
       <c r="G56" t="n">
         <v>4</v>
@@ -3194,10 +3182,10 @@
         <v>56</v>
       </c>
       <c r="E57" t="s">
+        <v>112</v>
+      </c>
+      <c r="F57" t="s">
         <v>113</v>
-      </c>
-      <c r="F57" t="s">
-        <v>114</v>
       </c>
       <c r="G57" t="n">
         <v>1</v>
@@ -3223,10 +3211,10 @@
         <v>57</v>
       </c>
       <c r="E58" t="s">
+        <v>114</v>
+      </c>
+      <c r="F58" t="s">
         <v>115</v>
-      </c>
-      <c r="F58" t="s">
-        <v>116</v>
       </c>
       <c r="G58" t="n">
         <v>1</v>
@@ -3252,10 +3240,10 @@
         <v>58</v>
       </c>
       <c r="E59" t="s">
+        <v>116</v>
+      </c>
+      <c r="F59" t="s">
         <v>117</v>
-      </c>
-      <c r="F59" t="s">
-        <v>118</v>
       </c>
       <c r="G59" t="n">
         <v>1</v>
@@ -3281,10 +3269,10 @@
         <v>59</v>
       </c>
       <c r="E60" t="s">
+        <v>118</v>
+      </c>
+      <c r="F60" t="s">
         <v>119</v>
-      </c>
-      <c r="F60" t="s">
-        <v>120</v>
       </c>
       <c r="G60" t="n">
         <v>2</v>
@@ -3310,10 +3298,10 @@
         <v>60</v>
       </c>
       <c r="E61" t="s">
+        <v>120</v>
+      </c>
+      <c r="F61" t="s">
         <v>121</v>
-      </c>
-      <c r="F61" t="s">
-        <v>122</v>
       </c>
       <c r="G61" t="n">
         <v>2</v>
@@ -3339,10 +3327,10 @@
         <v>61</v>
       </c>
       <c r="E62" t="s">
+        <v>122</v>
+      </c>
+      <c r="F62" t="s">
         <v>123</v>
-      </c>
-      <c r="F62" t="s">
-        <v>124</v>
       </c>
       <c r="G62" t="n">
         <v>3</v>
@@ -3368,10 +3356,10 @@
         <v>62</v>
       </c>
       <c r="E63" t="s">
+        <v>124</v>
+      </c>
+      <c r="F63" t="s">
         <v>125</v>
-      </c>
-      <c r="F63" t="s">
-        <v>126</v>
       </c>
       <c r="G63" t="n">
         <v>1</v>
@@ -3397,10 +3385,10 @@
         <v>63</v>
       </c>
       <c r="E64" t="s">
+        <v>126</v>
+      </c>
+      <c r="F64" t="s">
         <v>127</v>
-      </c>
-      <c r="F64" t="s">
-        <v>128</v>
       </c>
       <c r="G64" t="n">
         <v>1</v>
@@ -3426,10 +3414,10 @@
         <v>64</v>
       </c>
       <c r="E65" t="s">
+        <v>128</v>
+      </c>
+      <c r="F65" t="s">
         <v>129</v>
-      </c>
-      <c r="F65" t="s">
-        <v>130</v>
       </c>
       <c r="G65" t="n">
         <v>4</v>
@@ -3455,10 +3443,10 @@
         <v>65</v>
       </c>
       <c r="E66" t="s">
+        <v>130</v>
+      </c>
+      <c r="F66" t="s">
         <v>131</v>
-      </c>
-      <c r="F66" t="s">
-        <v>132</v>
       </c>
       <c r="G66" t="n">
         <v>3</v>
@@ -3484,10 +3472,10 @@
         <v>66</v>
       </c>
       <c r="E67" t="s">
+        <v>132</v>
+      </c>
+      <c r="F67" t="s">
         <v>133</v>
-      </c>
-      <c r="F67" t="s">
-        <v>134</v>
       </c>
       <c r="G67" t="n">
         <v>1</v>
@@ -3513,10 +3501,10 @@
         <v>67</v>
       </c>
       <c r="E68" t="s">
+        <v>134</v>
+      </c>
+      <c r="F68" t="s">
         <v>135</v>
-      </c>
-      <c r="F68" t="s">
-        <v>136</v>
       </c>
       <c r="G68" t="n">
         <v>1</v>
@@ -3542,10 +3530,10 @@
         <v>68</v>
       </c>
       <c r="E69" t="s">
+        <v>136</v>
+      </c>
+      <c r="F69" t="s">
         <v>137</v>
-      </c>
-      <c r="F69" t="s">
-        <v>138</v>
       </c>
       <c r="G69" t="n">
         <v>1</v>
@@ -3571,10 +3559,10 @@
         <v>69</v>
       </c>
       <c r="E70" t="s">
+        <v>138</v>
+      </c>
+      <c r="F70" t="s">
         <v>139</v>
-      </c>
-      <c r="F70" t="s">
-        <v>140</v>
       </c>
       <c r="G70" t="n">
         <v>1</v>
@@ -3600,10 +3588,10 @@
         <v>70</v>
       </c>
       <c r="E71" t="s">
+        <v>140</v>
+      </c>
+      <c r="F71" t="s">
         <v>141</v>
-      </c>
-      <c r="F71" t="s">
-        <v>142</v>
       </c>
       <c r="G71" t="n">
         <v>7</v>
@@ -3629,10 +3617,10 @@
         <v>71</v>
       </c>
       <c r="E72" t="s">
+        <v>142</v>
+      </c>
+      <c r="F72" t="s">
         <v>143</v>
-      </c>
-      <c r="F72" t="s">
-        <v>144</v>
       </c>
       <c r="G72" t="n">
         <v>1</v>
@@ -3658,10 +3646,10 @@
         <v>72</v>
       </c>
       <c r="E73" t="s">
+        <v>144</v>
+      </c>
+      <c r="F73" t="s">
         <v>145</v>
-      </c>
-      <c r="F73" t="s">
-        <v>146</v>
       </c>
       <c r="G73" t="n">
         <v>1</v>
@@ -3687,10 +3675,10 @@
         <v>73</v>
       </c>
       <c r="E74" t="s">
+        <v>146</v>
+      </c>
+      <c r="F74" t="s">
         <v>147</v>
-      </c>
-      <c r="F74" t="s">
-        <v>148</v>
       </c>
       <c r="G74" t="n">
         <v>1</v>
@@ -3716,10 +3704,10 @@
         <v>74</v>
       </c>
       <c r="E75" t="s">
+        <v>148</v>
+      </c>
+      <c r="F75" t="s">
         <v>149</v>
-      </c>
-      <c r="F75" t="s">
-        <v>150</v>
       </c>
       <c r="G75" t="n">
         <v>3</v>
@@ -3745,10 +3733,10 @@
         <v>75</v>
       </c>
       <c r="E76" t="s">
+        <v>150</v>
+      </c>
+      <c r="F76" t="s">
         <v>151</v>
-      </c>
-      <c r="F76" t="s">
-        <v>152</v>
       </c>
       <c r="G76" t="n">
         <v>1</v>
@@ -3774,10 +3762,10 @@
         <v>76</v>
       </c>
       <c r="E77" t="s">
+        <v>152</v>
+      </c>
+      <c r="F77" t="s">
         <v>153</v>
-      </c>
-      <c r="F77" t="s">
-        <v>154</v>
       </c>
       <c r="G77" t="n">
         <v>1</v>
@@ -3803,10 +3791,10 @@
         <v>77</v>
       </c>
       <c r="E78" t="s">
+        <v>154</v>
+      </c>
+      <c r="F78" t="s">
         <v>155</v>
-      </c>
-      <c r="F78" t="s">
-        <v>156</v>
       </c>
       <c r="G78" t="n">
         <v>2</v>
@@ -3832,10 +3820,10 @@
         <v>78</v>
       </c>
       <c r="E79" t="s">
+        <v>156</v>
+      </c>
+      <c r="F79" t="s">
         <v>157</v>
-      </c>
-      <c r="F79" t="s">
-        <v>158</v>
       </c>
       <c r="G79" t="n">
         <v>2</v>
@@ -3861,10 +3849,10 @@
         <v>79</v>
       </c>
       <c r="E80" t="s">
+        <v>154</v>
+      </c>
+      <c r="F80" t="s">
         <v>155</v>
-      </c>
-      <c r="F80" t="s">
-        <v>156</v>
       </c>
       <c r="G80" t="n">
         <v>1</v>
@@ -3890,10 +3878,10 @@
         <v>80</v>
       </c>
       <c r="E81" t="s">
+        <v>158</v>
+      </c>
+      <c r="F81" t="s">
         <v>159</v>
-      </c>
-      <c r="F81" t="s">
-        <v>160</v>
       </c>
       <c r="G81" t="n">
         <v>1</v>
@@ -3919,10 +3907,10 @@
         <v>81</v>
       </c>
       <c r="E82" t="s">
+        <v>160</v>
+      </c>
+      <c r="F82" t="s">
         <v>161</v>
-      </c>
-      <c r="F82" t="s">
-        <v>162</v>
       </c>
       <c r="G82" t="n">
         <v>1</v>
@@ -3948,10 +3936,10 @@
         <v>82</v>
       </c>
       <c r="E83" t="s">
+        <v>162</v>
+      </c>
+      <c r="F83" t="s">
         <v>163</v>
-      </c>
-      <c r="F83" t="s">
-        <v>164</v>
       </c>
       <c r="G83" t="n">
         <v>1</v>
@@ -3977,10 +3965,10 @@
         <v>83</v>
       </c>
       <c r="E84" t="s">
+        <v>164</v>
+      </c>
+      <c r="F84" t="s">
         <v>165</v>
-      </c>
-      <c r="F84" t="s">
-        <v>166</v>
       </c>
       <c r="G84" t="n">
         <v>1</v>
@@ -4006,10 +3994,10 @@
         <v>84</v>
       </c>
       <c r="E85" t="s">
+        <v>166</v>
+      </c>
+      <c r="F85" t="s">
         <v>167</v>
-      </c>
-      <c r="F85" t="s">
-        <v>168</v>
       </c>
       <c r="G85" t="n">
         <v>1</v>
@@ -4035,10 +4023,10 @@
         <v>85</v>
       </c>
       <c r="E86" t="s">
+        <v>168</v>
+      </c>
+      <c r="F86" t="s">
         <v>169</v>
-      </c>
-      <c r="F86" t="s">
-        <v>170</v>
       </c>
       <c r="G86" t="n">
         <v>1</v>
@@ -4064,10 +4052,10 @@
         <v>86</v>
       </c>
       <c r="E87" t="s">
+        <v>170</v>
+      </c>
+      <c r="F87" t="s">
         <v>171</v>
-      </c>
-      <c r="F87" t="s">
-        <v>172</v>
       </c>
       <c r="G87" t="n">
         <v>1</v>
@@ -4093,10 +4081,10 @@
         <v>87</v>
       </c>
       <c r="E88" t="s">
+        <v>172</v>
+      </c>
+      <c r="F88" t="s">
         <v>173</v>
-      </c>
-      <c r="F88" t="s">
-        <v>174</v>
       </c>
       <c r="G88" t="n">
         <v>2</v>
@@ -4122,10 +4110,10 @@
         <v>88</v>
       </c>
       <c r="E89" t="s">
+        <v>174</v>
+      </c>
+      <c r="F89" t="s">
         <v>175</v>
-      </c>
-      <c r="F89" t="s">
-        <v>176</v>
       </c>
       <c r="G89" t="n">
         <v>13</v>
@@ -4151,10 +4139,10 @@
         <v>89</v>
       </c>
       <c r="E90" t="s">
+        <v>176</v>
+      </c>
+      <c r="F90" t="s">
         <v>177</v>
-      </c>
-      <c r="F90" t="s">
-        <v>178</v>
       </c>
       <c r="G90" t="n">
         <v>1</v>
@@ -4180,10 +4168,10 @@
         <v>90</v>
       </c>
       <c r="E91" t="s">
+        <v>178</v>
+      </c>
+      <c r="F91" t="s">
         <v>179</v>
-      </c>
-      <c r="F91" t="s">
-        <v>180</v>
       </c>
       <c r="G91" t="n">
         <v>1</v>
@@ -4209,10 +4197,10 @@
         <v>91</v>
       </c>
       <c r="E92" t="s">
+        <v>180</v>
+      </c>
+      <c r="F92" t="s">
         <v>181</v>
-      </c>
-      <c r="F92" t="s">
-        <v>182</v>
       </c>
       <c r="G92" t="n">
         <v>9</v>
@@ -4238,10 +4226,10 @@
         <v>92</v>
       </c>
       <c r="E93" t="s">
+        <v>182</v>
+      </c>
+      <c r="F93" t="s">
         <v>183</v>
-      </c>
-      <c r="F93" t="s">
-        <v>184</v>
       </c>
       <c r="G93" t="n">
         <v>1</v>
@@ -4267,10 +4255,10 @@
         <v>93</v>
       </c>
       <c r="E94" t="s">
+        <v>184</v>
+      </c>
+      <c r="F94" t="s">
         <v>185</v>
-      </c>
-      <c r="F94" t="s">
-        <v>186</v>
       </c>
       <c r="G94" t="n">
         <v>1</v>
@@ -4296,10 +4284,10 @@
         <v>94</v>
       </c>
       <c r="E95" t="s">
+        <v>186</v>
+      </c>
+      <c r="F95" t="s">
         <v>187</v>
-      </c>
-      <c r="F95" t="s">
-        <v>188</v>
       </c>
       <c r="G95" t="n">
         <v>1</v>
@@ -4325,10 +4313,10 @@
         <v>95</v>
       </c>
       <c r="E96" t="s">
+        <v>188</v>
+      </c>
+      <c r="F96" t="s">
         <v>189</v>
-      </c>
-      <c r="F96" t="s">
-        <v>190</v>
       </c>
       <c r="G96" t="n">
         <v>1</v>
@@ -4354,10 +4342,10 @@
         <v>96</v>
       </c>
       <c r="E97" t="s">
+        <v>190</v>
+      </c>
+      <c r="F97" t="s">
         <v>191</v>
-      </c>
-      <c r="F97" t="s">
-        <v>192</v>
       </c>
       <c r="G97" t="n">
         <v>4</v>
@@ -4383,10 +4371,10 @@
         <v>97</v>
       </c>
       <c r="E98" t="s">
+        <v>192</v>
+      </c>
+      <c r="F98" t="s">
         <v>193</v>
-      </c>
-      <c r="F98" t="s">
-        <v>194</v>
       </c>
       <c r="G98" t="n">
         <v>1</v>
@@ -4412,10 +4400,10 @@
         <v>98</v>
       </c>
       <c r="E99" t="s">
+        <v>194</v>
+      </c>
+      <c r="F99" t="s">
         <v>195</v>
-      </c>
-      <c r="F99" t="s">
-        <v>196</v>
       </c>
       <c r="G99" t="n">
         <v>1</v>
@@ -4441,10 +4429,10 @@
         <v>99</v>
       </c>
       <c r="E100" t="s">
+        <v>196</v>
+      </c>
+      <c r="F100" t="s">
         <v>197</v>
-      </c>
-      <c r="F100" t="s">
-        <v>198</v>
       </c>
       <c r="G100" t="n">
         <v>1</v>
@@ -4470,10 +4458,10 @@
         <v>100</v>
       </c>
       <c r="E101" t="s">
+        <v>198</v>
+      </c>
+      <c r="F101" t="s">
         <v>199</v>
-      </c>
-      <c r="F101" t="s">
-        <v>200</v>
       </c>
       <c r="G101" t="n">
         <v>2</v>
@@ -4499,10 +4487,10 @@
         <v>101</v>
       </c>
       <c r="E102" t="s">
+        <v>200</v>
+      </c>
+      <c r="F102" t="s">
         <v>201</v>
-      </c>
-      <c r="F102" t="s">
-        <v>202</v>
       </c>
       <c r="G102" t="n">
         <v>1</v>
@@ -4528,10 +4516,10 @@
         <v>102</v>
       </c>
       <c r="E103" t="s">
+        <v>202</v>
+      </c>
+      <c r="F103" t="s">
         <v>203</v>
-      </c>
-      <c r="F103" t="s">
-        <v>204</v>
       </c>
       <c r="G103" t="n">
         <v>1</v>
@@ -4557,10 +4545,10 @@
         <v>103</v>
       </c>
       <c r="E104" t="s">
+        <v>204</v>
+      </c>
+      <c r="F104" t="s">
         <v>205</v>
-      </c>
-      <c r="F104" t="s">
-        <v>206</v>
       </c>
       <c r="G104" t="n">
         <v>1</v>
@@ -4586,10 +4574,10 @@
         <v>104</v>
       </c>
       <c r="E105" t="s">
+        <v>206</v>
+      </c>
+      <c r="F105" t="s">
         <v>207</v>
-      </c>
-      <c r="F105" t="s">
-        <v>208</v>
       </c>
       <c r="G105" t="n">
         <v>1</v>
@@ -4615,10 +4603,10 @@
         <v>105</v>
       </c>
       <c r="E106" t="s">
+        <v>208</v>
+      </c>
+      <c r="F106" t="s">
         <v>209</v>
-      </c>
-      <c r="F106" t="s">
-        <v>210</v>
       </c>
       <c r="G106" t="n">
         <v>1</v>
@@ -4644,10 +4632,10 @@
         <v>106</v>
       </c>
       <c r="E107" t="s">
+        <v>210</v>
+      </c>
+      <c r="F107" t="s">
         <v>211</v>
-      </c>
-      <c r="F107" t="s">
-        <v>212</v>
       </c>
       <c r="G107" t="n">
         <v>1</v>
@@ -4673,10 +4661,10 @@
         <v>107</v>
       </c>
       <c r="E108" t="s">
+        <v>212</v>
+      </c>
+      <c r="F108" t="s">
         <v>213</v>
-      </c>
-      <c r="F108" t="s">
-        <v>214</v>
       </c>
       <c r="G108" t="n">
         <v>1</v>
@@ -4702,10 +4690,10 @@
         <v>108</v>
       </c>
       <c r="E109" t="s">
+        <v>214</v>
+      </c>
+      <c r="F109" t="s">
         <v>215</v>
-      </c>
-      <c r="F109" t="s">
-        <v>216</v>
       </c>
       <c r="G109" t="n">
         <v>1</v>
@@ -4731,10 +4719,10 @@
         <v>109</v>
       </c>
       <c r="E110" t="s">
+        <v>216</v>
+      </c>
+      <c r="F110" t="s">
         <v>217</v>
-      </c>
-      <c r="F110" t="s">
-        <v>218</v>
       </c>
       <c r="G110" t="n">
         <v>1</v>
@@ -4760,10 +4748,10 @@
         <v>110</v>
       </c>
       <c r="E111" t="s">
+        <v>218</v>
+      </c>
+      <c r="F111" t="s">
         <v>219</v>
-      </c>
-      <c r="F111" t="s">
-        <v>220</v>
       </c>
       <c r="G111" t="n">
         <v>1</v>
@@ -4789,10 +4777,10 @@
         <v>111</v>
       </c>
       <c r="E112" t="s">
+        <v>220</v>
+      </c>
+      <c r="F112" t="s">
         <v>221</v>
-      </c>
-      <c r="F112" t="s">
-        <v>222</v>
       </c>
       <c r="G112" t="n">
         <v>1</v>
@@ -4818,10 +4806,10 @@
         <v>112</v>
       </c>
       <c r="E113" t="s">
+        <v>222</v>
+      </c>
+      <c r="F113" t="s">
         <v>223</v>
-      </c>
-      <c r="F113" t="s">
-        <v>224</v>
       </c>
       <c r="G113" t="n">
         <v>1</v>
@@ -4847,10 +4835,10 @@
         <v>113</v>
       </c>
       <c r="E114" t="s">
+        <v>224</v>
+      </c>
+      <c r="F114" t="s">
         <v>225</v>
-      </c>
-      <c r="F114" t="s">
-        <v>226</v>
       </c>
       <c r="G114" t="n">
         <v>1</v>
@@ -4876,10 +4864,10 @@
         <v>114</v>
       </c>
       <c r="E115" t="s">
+        <v>226</v>
+      </c>
+      <c r="F115" t="s">
         <v>227</v>
-      </c>
-      <c r="F115" t="s">
-        <v>228</v>
       </c>
       <c r="G115" t="n">
         <v>1</v>
@@ -4905,10 +4893,10 @@
         <v>115</v>
       </c>
       <c r="E116" t="s">
+        <v>228</v>
+      </c>
+      <c r="F116" t="s">
         <v>229</v>
-      </c>
-      <c r="F116" t="s">
-        <v>230</v>
       </c>
       <c r="G116" t="n">
         <v>1</v>
@@ -4934,10 +4922,10 @@
         <v>116</v>
       </c>
       <c r="E117" t="s">
+        <v>230</v>
+      </c>
+      <c r="F117" t="s">
         <v>231</v>
-      </c>
-      <c r="F117" t="s">
-        <v>232</v>
       </c>
       <c r="G117" t="n">
         <v>1</v>
@@ -4963,10 +4951,10 @@
         <v>117</v>
       </c>
       <c r="E118" t="s">
+        <v>232</v>
+      </c>
+      <c r="F118" t="s">
         <v>233</v>
-      </c>
-      <c r="F118" t="s">
-        <v>234</v>
       </c>
       <c r="G118" t="n">
         <v>1</v>
@@ -4992,10 +4980,10 @@
         <v>118</v>
       </c>
       <c r="E119" t="s">
+        <v>234</v>
+      </c>
+      <c r="F119" t="s">
         <v>235</v>
-      </c>
-      <c r="F119" t="s">
-        <v>236</v>
       </c>
       <c r="G119" t="n">
         <v>1</v>
@@ -5021,10 +5009,10 @@
         <v>119</v>
       </c>
       <c r="E120" t="s">
+        <v>236</v>
+      </c>
+      <c r="F120" t="s">
         <v>237</v>
-      </c>
-      <c r="F120" t="s">
-        <v>238</v>
       </c>
       <c r="G120" t="n">
         <v>1</v>
@@ -5050,10 +5038,10 @@
         <v>120</v>
       </c>
       <c r="E121" t="s">
+        <v>238</v>
+      </c>
+      <c r="F121" t="s">
         <v>239</v>
-      </c>
-      <c r="F121" t="s">
-        <v>240</v>
       </c>
       <c r="G121" t="n">
         <v>1</v>
@@ -5079,10 +5067,10 @@
         <v>121</v>
       </c>
       <c r="E122" t="s">
+        <v>240</v>
+      </c>
+      <c r="F122" t="s">
         <v>241</v>
-      </c>
-      <c r="F122" t="s">
-        <v>242</v>
       </c>
       <c r="G122" t="n">
         <v>1</v>
@@ -5108,10 +5096,10 @@
         <v>122</v>
       </c>
       <c r="E123" t="s">
+        <v>242</v>
+      </c>
+      <c r="F123" t="s">
         <v>243</v>
-      </c>
-      <c r="F123" t="s">
-        <v>244</v>
       </c>
       <c r="G123" t="n">
         <v>1</v>
@@ -5137,10 +5125,10 @@
         <v>123</v>
       </c>
       <c r="E124" t="s">
+        <v>244</v>
+      </c>
+      <c r="F124" t="s">
         <v>245</v>
-      </c>
-      <c r="F124" t="s">
-        <v>246</v>
       </c>
       <c r="G124" t="n">
         <v>1</v>
@@ -5166,10 +5154,10 @@
         <v>124</v>
       </c>
       <c r="E125" t="s">
+        <v>246</v>
+      </c>
+      <c r="F125" t="s">
         <v>247</v>
-      </c>
-      <c r="F125" t="s">
-        <v>248</v>
       </c>
       <c r="G125" t="n">
         <v>1</v>
@@ -5195,10 +5183,10 @@
         <v>125</v>
       </c>
       <c r="E126" t="s">
+        <v>248</v>
+      </c>
+      <c r="F126" t="s">
         <v>249</v>
-      </c>
-      <c r="F126" t="s">
-        <v>250</v>
       </c>
       <c r="G126" t="n">
         <v>1</v>
@@ -5224,10 +5212,10 @@
         <v>126</v>
       </c>
       <c r="E127" t="s">
+        <v>250</v>
+      </c>
+      <c r="F127" t="s">
         <v>251</v>
-      </c>
-      <c r="F127" t="s">
-        <v>252</v>
       </c>
       <c r="G127" t="n">
         <v>1</v>
@@ -5253,10 +5241,10 @@
         <v>127</v>
       </c>
       <c r="E128" t="s">
+        <v>252</v>
+      </c>
+      <c r="F128" t="s">
         <v>253</v>
-      </c>
-      <c r="F128" t="s">
-        <v>254</v>
       </c>
       <c r="G128" t="n">
         <v>1</v>
@@ -5282,10 +5270,10 @@
         <v>128</v>
       </c>
       <c r="E129" t="s">
+        <v>254</v>
+      </c>
+      <c r="F129" t="s">
         <v>255</v>
-      </c>
-      <c r="F129" t="s">
-        <v>256</v>
       </c>
       <c r="G129" t="n">
         <v>1</v>
@@ -5311,10 +5299,10 @@
         <v>129</v>
       </c>
       <c r="E130" t="s">
+        <v>256</v>
+      </c>
+      <c r="F130" t="s">
         <v>257</v>
-      </c>
-      <c r="F130" t="s">
-        <v>258</v>
       </c>
       <c r="G130" t="n">
         <v>3</v>
@@ -5340,10 +5328,10 @@
         <v>130</v>
       </c>
       <c r="E131" t="s">
+        <v>258</v>
+      </c>
+      <c r="F131" t="s">
         <v>259</v>
-      </c>
-      <c r="F131" t="s">
-        <v>260</v>
       </c>
       <c r="G131" t="n">
         <v>1</v>
@@ -5369,10 +5357,10 @@
         <v>131</v>
       </c>
       <c r="E132" t="s">
+        <v>260</v>
+      </c>
+      <c r="F132" t="s">
         <v>261</v>
-      </c>
-      <c r="F132" t="s">
-        <v>262</v>
       </c>
       <c r="G132" t="n">
         <v>1</v>
@@ -5398,10 +5386,10 @@
         <v>132</v>
       </c>
       <c r="E133" t="s">
+        <v>262</v>
+      </c>
+      <c r="F133" t="s">
         <v>263</v>
-      </c>
-      <c r="F133" t="s">
-        <v>264</v>
       </c>
       <c r="G133" t="n">
         <v>1</v>
@@ -5427,10 +5415,10 @@
         <v>133</v>
       </c>
       <c r="E134" t="s">
+        <v>264</v>
+      </c>
+      <c r="F134" t="s">
         <v>265</v>
-      </c>
-      <c r="F134" t="s">
-        <v>266</v>
       </c>
       <c r="G134" t="n">
         <v>1</v>
@@ -5456,10 +5444,10 @@
         <v>134</v>
       </c>
       <c r="E135" t="s">
+        <v>266</v>
+      </c>
+      <c r="F135" t="s">
         <v>267</v>
-      </c>
-      <c r="F135" t="s">
-        <v>268</v>
       </c>
       <c r="G135" t="n">
         <v>1</v>
@@ -5485,10 +5473,10 @@
         <v>135</v>
       </c>
       <c r="E136" t="s">
+        <v>268</v>
+      </c>
+      <c r="F136" t="s">
         <v>269</v>
-      </c>
-      <c r="F136" t="s">
-        <v>270</v>
       </c>
       <c r="G136" t="n">
         <v>1</v>
@@ -5514,10 +5502,10 @@
         <v>136</v>
       </c>
       <c r="E137" t="s">
+        <v>270</v>
+      </c>
+      <c r="F137" t="s">
         <v>271</v>
-      </c>
-      <c r="F137" t="s">
-        <v>272</v>
       </c>
       <c r="G137" t="n">
         <v>1</v>
@@ -5543,10 +5531,10 @@
         <v>137</v>
       </c>
       <c r="E138" t="s">
+        <v>272</v>
+      </c>
+      <c r="F138" t="s">
         <v>273</v>
-      </c>
-      <c r="F138" t="s">
-        <v>274</v>
       </c>
       <c r="G138" t="n">
         <v>1</v>
@@ -5572,10 +5560,10 @@
         <v>138</v>
       </c>
       <c r="E139" t="s">
+        <v>274</v>
+      </c>
+      <c r="F139" t="s">
         <v>275</v>
-      </c>
-      <c r="F139" t="s">
-        <v>276</v>
       </c>
       <c r="G139" t="n">
         <v>1</v>
@@ -5601,10 +5589,10 @@
         <v>139</v>
       </c>
       <c r="E140" t="s">
+        <v>276</v>
+      </c>
+      <c r="F140" t="s">
         <v>277</v>
-      </c>
-      <c r="F140" t="s">
-        <v>278</v>
       </c>
       <c r="G140" t="n">
         <v>1</v>
@@ -5630,10 +5618,10 @@
         <v>140</v>
       </c>
       <c r="E141" t="s">
+        <v>278</v>
+      </c>
+      <c r="F141" t="s">
         <v>279</v>
-      </c>
-      <c r="F141" t="s">
-        <v>280</v>
       </c>
       <c r="G141" t="n">
         <v>2</v>
@@ -5659,10 +5647,10 @@
         <v>141</v>
       </c>
       <c r="E142" t="s">
+        <v>280</v>
+      </c>
+      <c r="F142" t="s">
         <v>281</v>
-      </c>
-      <c r="F142" t="s">
-        <v>282</v>
       </c>
       <c r="G142" t="n">
         <v>1</v>
@@ -5688,10 +5676,10 @@
         <v>142</v>
       </c>
       <c r="E143" t="s">
+        <v>282</v>
+      </c>
+      <c r="F143" t="s">
         <v>283</v>
-      </c>
-      <c r="F143" t="s">
-        <v>284</v>
       </c>
       <c r="G143" t="n">
         <v>1</v>
@@ -5717,10 +5705,10 @@
         <v>143</v>
       </c>
       <c r="E144" t="s">
+        <v>284</v>
+      </c>
+      <c r="F144" t="s">
         <v>285</v>
-      </c>
-      <c r="F144" t="s">
-        <v>286</v>
       </c>
       <c r="G144" t="n">
         <v>1</v>
@@ -5746,10 +5734,10 @@
         <v>144</v>
       </c>
       <c r="E145" t="s">
+        <v>286</v>
+      </c>
+      <c r="F145" t="s">
         <v>287</v>
-      </c>
-      <c r="F145" t="s">
-        <v>288</v>
       </c>
       <c r="G145" t="n">
         <v>1</v>
@@ -5775,10 +5763,10 @@
         <v>145</v>
       </c>
       <c r="E146" t="s">
+        <v>288</v>
+      </c>
+      <c r="F146" t="s">
         <v>289</v>
-      </c>
-      <c r="F146" t="s">
-        <v>290</v>
       </c>
       <c r="G146" t="n">
         <v>1</v>
@@ -5804,10 +5792,10 @@
         <v>146</v>
       </c>
       <c r="E147" t="s">
+        <v>290</v>
+      </c>
+      <c r="F147" t="s">
         <v>291</v>
-      </c>
-      <c r="F147" t="s">
-        <v>292</v>
       </c>
       <c r="G147" t="n">
         <v>1</v>
@@ -5833,10 +5821,10 @@
         <v>147</v>
       </c>
       <c r="E148" t="s">
+        <v>292</v>
+      </c>
+      <c r="F148" t="s">
         <v>293</v>
-      </c>
-      <c r="F148" t="s">
-        <v>294</v>
       </c>
       <c r="G148" t="n">
         <v>1</v>
@@ -5862,10 +5850,10 @@
         <v>148</v>
       </c>
       <c r="E149" t="s">
+        <v>294</v>
+      </c>
+      <c r="F149" t="s">
         <v>295</v>
-      </c>
-      <c r="F149" t="s">
-        <v>296</v>
       </c>
       <c r="G149" t="n">
         <v>2</v>
@@ -5891,10 +5879,10 @@
         <v>149</v>
       </c>
       <c r="E150" t="s">
+        <v>296</v>
+      </c>
+      <c r="F150" t="s">
         <v>297</v>
-      </c>
-      <c r="F150" t="s">
-        <v>298</v>
       </c>
       <c r="G150" t="n">
         <v>1</v>
@@ -5920,10 +5908,10 @@
         <v>150</v>
       </c>
       <c r="E151" t="s">
+        <v>298</v>
+      </c>
+      <c r="F151" t="s">
         <v>299</v>
-      </c>
-      <c r="F151" t="s">
-        <v>300</v>
       </c>
       <c r="G151" t="n">
         <v>1</v>
@@ -5949,10 +5937,10 @@
         <v>151</v>
       </c>
       <c r="E152" t="s">
+        <v>300</v>
+      </c>
+      <c r="F152" t="s">
         <v>301</v>
-      </c>
-      <c r="F152" t="s">
-        <v>302</v>
       </c>
       <c r="G152" t="n">
         <v>3</v>
@@ -5978,10 +5966,10 @@
         <v>152</v>
       </c>
       <c r="E153" t="s">
+        <v>302</v>
+      </c>
+      <c r="F153" t="s">
         <v>303</v>
-      </c>
-      <c r="F153" t="s">
-        <v>304</v>
       </c>
       <c r="G153" t="n">
         <v>1</v>
@@ -6007,10 +5995,10 @@
         <v>153</v>
       </c>
       <c r="E154" t="s">
+        <v>304</v>
+      </c>
+      <c r="F154" t="s">
         <v>305</v>
-      </c>
-      <c r="F154" t="s">
-        <v>306</v>
       </c>
       <c r="G154" t="n">
         <v>1</v>
@@ -6036,10 +6024,10 @@
         <v>154</v>
       </c>
       <c r="E155" t="s">
+        <v>306</v>
+      </c>
+      <c r="F155" t="s">
         <v>307</v>
-      </c>
-      <c r="F155" t="s">
-        <v>308</v>
       </c>
       <c r="G155" t="n">
         <v>1</v>
@@ -6065,10 +6053,10 @@
         <v>155</v>
       </c>
       <c r="E156" t="s">
+        <v>308</v>
+      </c>
+      <c r="F156" t="s">
         <v>309</v>
-      </c>
-      <c r="F156" t="s">
-        <v>310</v>
       </c>
       <c r="G156" t="n">
         <v>1</v>
@@ -6094,10 +6082,10 @@
         <v>156</v>
       </c>
       <c r="E157" t="s">
+        <v>310</v>
+      </c>
+      <c r="F157" t="s">
         <v>311</v>
-      </c>
-      <c r="F157" t="s">
-        <v>312</v>
       </c>
       <c r="G157" t="n">
         <v>1</v>
@@ -6123,10 +6111,10 @@
         <v>157</v>
       </c>
       <c r="E158" t="s">
+        <v>312</v>
+      </c>
+      <c r="F158" t="s">
         <v>313</v>
-      </c>
-      <c r="F158" t="s">
-        <v>314</v>
       </c>
       <c r="G158" t="n">
         <v>1</v>
@@ -6152,10 +6140,10 @@
         <v>158</v>
       </c>
       <c r="E159" t="s">
+        <v>314</v>
+      </c>
+      <c r="F159" t="s">
         <v>315</v>
-      </c>
-      <c r="F159" t="s">
-        <v>316</v>
       </c>
       <c r="G159" t="n">
         <v>1</v>
@@ -6181,10 +6169,10 @@
         <v>159</v>
       </c>
       <c r="E160" t="s">
+        <v>316</v>
+      </c>
+      <c r="F160" t="s">
         <v>317</v>
-      </c>
-      <c r="F160" t="s">
-        <v>318</v>
       </c>
       <c r="G160" t="n">
         <v>1</v>
@@ -6210,10 +6198,10 @@
         <v>160</v>
       </c>
       <c r="E161" t="s">
+        <v>318</v>
+      </c>
+      <c r="F161" t="s">
         <v>319</v>
-      </c>
-      <c r="F161" t="s">
-        <v>320</v>
       </c>
       <c r="G161" t="n">
         <v>1</v>
@@ -6239,10 +6227,10 @@
         <v>161</v>
       </c>
       <c r="E162" t="s">
+        <v>320</v>
+      </c>
+      <c r="F162" t="s">
         <v>321</v>
-      </c>
-      <c r="F162" t="s">
-        <v>322</v>
       </c>
       <c r="G162" t="n">
         <v>1</v>
@@ -6268,10 +6256,10 @@
         <v>162</v>
       </c>
       <c r="E163" t="s">
+        <v>322</v>
+      </c>
+      <c r="F163" t="s">
         <v>323</v>
-      </c>
-      <c r="F163" t="s">
-        <v>324</v>
       </c>
       <c r="G163" t="n">
         <v>1</v>
@@ -6297,10 +6285,10 @@
         <v>163</v>
       </c>
       <c r="E164" t="s">
+        <v>324</v>
+      </c>
+      <c r="F164" t="s">
         <v>325</v>
-      </c>
-      <c r="F164" t="s">
-        <v>326</v>
       </c>
       <c r="G164" t="n">
         <v>1</v>
@@ -6326,10 +6314,10 @@
         <v>164</v>
       </c>
       <c r="E165" t="s">
+        <v>326</v>
+      </c>
+      <c r="F165" t="s">
         <v>327</v>
-      </c>
-      <c r="F165" t="s">
-        <v>328</v>
       </c>
       <c r="G165" t="n">
         <v>1</v>
@@ -6355,10 +6343,10 @@
         <v>165</v>
       </c>
       <c r="E166" t="s">
+        <v>328</v>
+      </c>
+      <c r="F166" t="s">
         <v>329</v>
-      </c>
-      <c r="F166" t="s">
-        <v>330</v>
       </c>
       <c r="G166" t="n">
         <v>1</v>
@@ -6384,10 +6372,10 @@
         <v>166</v>
       </c>
       <c r="E167" t="s">
+        <v>330</v>
+      </c>
+      <c r="F167" t="s">
         <v>331</v>
-      </c>
-      <c r="F167" t="s">
-        <v>332</v>
       </c>
       <c r="G167" t="n">
         <v>1</v>
@@ -6413,10 +6401,10 @@
         <v>167</v>
       </c>
       <c r="E168" t="s">
+        <v>332</v>
+      </c>
+      <c r="F168" t="s">
         <v>333</v>
-      </c>
-      <c r="F168" t="s">
-        <v>334</v>
       </c>
       <c r="G168" t="n">
         <v>1</v>
@@ -6442,10 +6430,10 @@
         <v>168</v>
       </c>
       <c r="E169" t="s">
+        <v>334</v>
+      </c>
+      <c r="F169" t="s">
         <v>335</v>
-      </c>
-      <c r="F169" t="s">
-        <v>336</v>
       </c>
       <c r="G169" t="n">
         <v>1</v>
@@ -6471,10 +6459,10 @@
         <v>169</v>
       </c>
       <c r="E170" t="s">
+        <v>336</v>
+      </c>
+      <c r="F170" t="s">
         <v>337</v>
-      </c>
-      <c r="F170" t="s">
-        <v>338</v>
       </c>
       <c r="G170" t="n">
         <v>1</v>
@@ -6500,10 +6488,10 @@
         <v>170</v>
       </c>
       <c r="E171" t="s">
+        <v>338</v>
+      </c>
+      <c r="F171" t="s">
         <v>339</v>
-      </c>
-      <c r="F171" t="s">
-        <v>340</v>
       </c>
       <c r="G171" t="n">
         <v>1</v>
@@ -6529,10 +6517,10 @@
         <v>171</v>
       </c>
       <c r="E172" t="s">
+        <v>340</v>
+      </c>
+      <c r="F172" t="s">
         <v>341</v>
-      </c>
-      <c r="F172" t="s">
-        <v>342</v>
       </c>
       <c r="G172" t="n">
         <v>1</v>
@@ -6558,10 +6546,10 @@
         <v>172</v>
       </c>
       <c r="E173" t="s">
+        <v>342</v>
+      </c>
+      <c r="F173" t="s">
         <v>343</v>
-      </c>
-      <c r="F173" t="s">
-        <v>344</v>
       </c>
       <c r="G173" t="n">
         <v>1</v>
@@ -6587,10 +6575,10 @@
         <v>173</v>
       </c>
       <c r="E174" t="s">
+        <v>344</v>
+      </c>
+      <c r="F174" t="s">
         <v>345</v>
-      </c>
-      <c r="F174" t="s">
-        <v>346</v>
       </c>
       <c r="G174" t="n">
         <v>1</v>
@@ -6616,10 +6604,10 @@
         <v>174</v>
       </c>
       <c r="E175" t="s">
+        <v>346</v>
+      </c>
+      <c r="F175" t="s">
         <v>347</v>
-      </c>
-      <c r="F175" t="s">
-        <v>348</v>
       </c>
       <c r="G175" t="n">
         <v>1</v>
@@ -6645,10 +6633,10 @@
         <v>175</v>
       </c>
       <c r="E176" t="s">
+        <v>348</v>
+      </c>
+      <c r="F176" t="s">
         <v>349</v>
-      </c>
-      <c r="F176" t="s">
-        <v>350</v>
       </c>
       <c r="G176" t="n">
         <v>1</v>
@@ -6674,10 +6662,10 @@
         <v>176</v>
       </c>
       <c r="E177" t="s">
+        <v>350</v>
+      </c>
+      <c r="F177" t="s">
         <v>351</v>
-      </c>
-      <c r="F177" t="s">
-        <v>352</v>
       </c>
       <c r="G177" t="n">
         <v>1</v>
@@ -6703,10 +6691,10 @@
         <v>177</v>
       </c>
       <c r="E178" t="s">
+        <v>352</v>
+      </c>
+      <c r="F178" t="s">
         <v>353</v>
-      </c>
-      <c r="F178" t="s">
-        <v>354</v>
       </c>
       <c r="G178" t="n">
         <v>1</v>
@@ -6732,10 +6720,10 @@
         <v>178</v>
       </c>
       <c r="E179" t="s">
+        <v>354</v>
+      </c>
+      <c r="F179" t="s">
         <v>355</v>
-      </c>
-      <c r="F179" t="s">
-        <v>356</v>
       </c>
       <c r="G179" t="n">
         <v>1</v>
@@ -6761,10 +6749,10 @@
         <v>179</v>
       </c>
       <c r="E180" t="s">
+        <v>190</v>
+      </c>
+      <c r="F180" t="s">
         <v>191</v>
-      </c>
-      <c r="F180" t="s">
-        <v>192</v>
       </c>
       <c r="G180" t="n">
         <v>1</v>
@@ -6790,10 +6778,10 @@
         <v>180</v>
       </c>
       <c r="E181" t="s">
+        <v>356</v>
+      </c>
+      <c r="F181" t="s">
         <v>357</v>
-      </c>
-      <c r="F181" t="s">
-        <v>358</v>
       </c>
       <c r="G181" t="n">
         <v>1</v>
@@ -6819,10 +6807,10 @@
         <v>181</v>
       </c>
       <c r="E182" t="s">
+        <v>358</v>
+      </c>
+      <c r="F182" t="s">
         <v>359</v>
-      </c>
-      <c r="F182" t="s">
-        <v>360</v>
       </c>
       <c r="G182" t="n">
         <v>1</v>
@@ -6848,10 +6836,10 @@
         <v>182</v>
       </c>
       <c r="E183" t="s">
+        <v>360</v>
+      </c>
+      <c r="F183" t="s">
         <v>361</v>
-      </c>
-      <c r="F183" t="s">
-        <v>362</v>
       </c>
       <c r="G183" t="n">
         <v>1</v>
@@ -6877,10 +6865,10 @@
         <v>183</v>
       </c>
       <c r="E184" t="s">
+        <v>362</v>
+      </c>
+      <c r="F184" t="s">
         <v>363</v>
-      </c>
-      <c r="F184" t="s">
-        <v>364</v>
       </c>
       <c r="G184" t="n">
         <v>1</v>
@@ -6906,10 +6894,10 @@
         <v>184</v>
       </c>
       <c r="E185" t="s">
+        <v>364</v>
+      </c>
+      <c r="F185" t="s">
         <v>365</v>
-      </c>
-      <c r="F185" t="s">
-        <v>366</v>
       </c>
       <c r="G185" t="n">
         <v>1</v>
@@ -6935,10 +6923,10 @@
         <v>185</v>
       </c>
       <c r="E186" t="s">
+        <v>366</v>
+      </c>
+      <c r="F186" t="s">
         <v>367</v>
-      </c>
-      <c r="F186" t="s">
-        <v>368</v>
       </c>
       <c r="G186" t="n">
         <v>1</v>
@@ -6964,10 +6952,10 @@
         <v>186</v>
       </c>
       <c r="E187" t="s">
+        <v>368</v>
+      </c>
+      <c r="F187" t="s">
         <v>369</v>
-      </c>
-      <c r="F187" t="s">
-        <v>370</v>
       </c>
       <c r="G187" t="n">
         <v>1</v>
@@ -6993,10 +6981,10 @@
         <v>187</v>
       </c>
       <c r="E188" t="s">
+        <v>370</v>
+      </c>
+      <c r="F188" t="s">
         <v>371</v>
-      </c>
-      <c r="F188" t="s">
-        <v>372</v>
       </c>
       <c r="G188" t="n">
         <v>1</v>
@@ -7022,10 +7010,10 @@
         <v>188</v>
       </c>
       <c r="E189" t="s">
+        <v>372</v>
+      </c>
+      <c r="F189" t="s">
         <v>373</v>
-      </c>
-      <c r="F189" t="s">
-        <v>374</v>
       </c>
       <c r="G189" t="n">
         <v>1</v>
@@ -7051,10 +7039,10 @@
         <v>189</v>
       </c>
       <c r="E190" t="s">
+        <v>374</v>
+      </c>
+      <c r="F190" t="s">
         <v>375</v>
-      </c>
-      <c r="F190" t="s">
-        <v>376</v>
       </c>
       <c r="G190" t="n">
         <v>1</v>
@@ -7080,10 +7068,10 @@
         <v>190</v>
       </c>
       <c r="E191" t="s">
+        <v>376</v>
+      </c>
+      <c r="F191" t="s">
         <v>377</v>
-      </c>
-      <c r="F191" t="s">
-        <v>378</v>
       </c>
       <c r="G191" t="n">
         <v>1</v>
@@ -7109,10 +7097,10 @@
         <v>191</v>
       </c>
       <c r="E192" t="s">
+        <v>378</v>
+      </c>
+      <c r="F192" t="s">
         <v>379</v>
-      </c>
-      <c r="F192" t="s">
-        <v>380</v>
       </c>
       <c r="G192" t="n">
         <v>1</v>
@@ -7138,10 +7126,10 @@
         <v>192</v>
       </c>
       <c r="E193" t="s">
+        <v>380</v>
+      </c>
+      <c r="F193" t="s">
         <v>381</v>
-      </c>
-      <c r="F193" t="s">
-        <v>382</v>
       </c>
       <c r="G193" t="n">
         <v>1</v>
@@ -7167,10 +7155,10 @@
         <v>193</v>
       </c>
       <c r="E194" t="s">
+        <v>382</v>
+      </c>
+      <c r="F194" t="s">
         <v>383</v>
-      </c>
-      <c r="F194" t="s">
-        <v>384</v>
       </c>
       <c r="G194" t="n">
         <v>1</v>
@@ -7196,10 +7184,10 @@
         <v>194</v>
       </c>
       <c r="E195" t="s">
+        <v>384</v>
+      </c>
+      <c r="F195" t="s">
         <v>385</v>
-      </c>
-      <c r="F195" t="s">
-        <v>386</v>
       </c>
       <c r="G195" t="n">
         <v>1</v>
@@ -7225,10 +7213,10 @@
         <v>195</v>
       </c>
       <c r="E196" t="s">
+        <v>386</v>
+      </c>
+      <c r="F196" t="s">
         <v>387</v>
-      </c>
-      <c r="F196" t="s">
-        <v>388</v>
       </c>
       <c r="G196" t="n">
         <v>1</v>
@@ -7254,10 +7242,10 @@
         <v>196</v>
       </c>
       <c r="E197" t="s">
+        <v>388</v>
+      </c>
+      <c r="F197" t="s">
         <v>389</v>
-      </c>
-      <c r="F197" t="s">
-        <v>390</v>
       </c>
       <c r="G197" t="n">
         <v>1</v>
@@ -7283,11 +7271,11 @@
         <v>197</v>
       </c>
       <c r="E198" t="s">
+        <v>390</v>
+      </c>
+      <c r="F198" t="s">
         <v>391</v>
       </c>
-      <c r="F198" t="s">
-        <v>392</v>
-      </c>
       <c r="G198" t="n">
         <v>1</v>
       </c>
@@ -7295,64 +7283,6 @@
         <v>4</v>
       </c>
       <c r="I198" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="199" spans="1:9">
-      <c r="A199" s="1" t="n">
-        <v>197</v>
-      </c>
-      <c r="B199" t="s">
-        <v>0</v>
-      </c>
-      <c r="C199" t="s">
-        <v>1</v>
-      </c>
-      <c r="D199" t="n">
-        <v>198</v>
-      </c>
-      <c r="E199" t="s">
-        <v>393</v>
-      </c>
-      <c r="F199" t="s">
-        <v>394</v>
-      </c>
-      <c r="G199" t="n">
-        <v>3</v>
-      </c>
-      <c r="H199" t="s">
-        <v>4</v>
-      </c>
-      <c r="I199" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="200" spans="1:9">
-      <c r="A200" s="1" t="n">
-        <v>198</v>
-      </c>
-      <c r="B200" t="s">
-        <v>0</v>
-      </c>
-      <c r="C200" t="s">
-        <v>1</v>
-      </c>
-      <c r="D200" t="n">
-        <v>199</v>
-      </c>
-      <c r="E200" t="s">
-        <v>393</v>
-      </c>
-      <c r="F200" t="s">
-        <v>395</v>
-      </c>
-      <c r="G200" t="n">
-        <v>1</v>
-      </c>
-      <c r="H200" t="s">
-        <v>4</v>
-      </c>
-      <c r="I200" t="n">
         <v>3</v>
       </c>
     </row>
